--- a/data/america-do-sul/copa-sul-americana/2023.xlsx
+++ b/data/america-do-sul/copa-sul-americana/2023.xlsx
@@ -621,12 +621,8 @@
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
-        <v>47090</v>
-      </c>
-      <c r="K3" t="n">
-        <v>11540</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
           <t>04/10/2023</t>
@@ -681,10 +677,22 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Rojas A. (Col)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Castelão (Fortaleza)</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>60326</v>
+      </c>
+      <c r="K4" t="n">
+        <v>60151</v>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
           <t>03/10/2023</t>
@@ -739,9 +747,19 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Raphael Claus (Bra)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Estádio Rodrigo Paz Delgado (Quito)</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>41575</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
@@ -797,9 +815,19 @@
       <c r="G6" t="n">
         <v>1</v>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ostojich E. (Uru)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Neo Química Arena (São Paulo)</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>49205</v>
+      </c>
       <c r="K6" t="n">
         <v>42196</v>
       </c>
@@ -908,7 +936,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -927,22 +955,10 @@
       <c r="G8" t="n">
         <v>1</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Herrera A. (Ven)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Estádio do MorumBIS (São Paulo)</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>77011</v>
-      </c>
-      <c r="K8" t="n">
-        <v>52658</v>
-      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
           <t>31/08/2023</t>
@@ -1059,10 +1075,22 @@
       <c r="G10" t="n">
         <v>1</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Roldan W. (Col)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Estádio Jorge Luis Hirschi (La Plata)</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>32530</v>
+      </c>
+      <c r="K10" t="n">
+        <v>23082</v>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
           <t>29/08/2023</t>
@@ -1182,7 +1210,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1191,10 +1219,22 @@
       <c r="G12" t="n">
         <v>1</v>
       </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Ospina J. (Col)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Estádio Rodrigo Paz Delgado (Quito)</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>41575</v>
+      </c>
+      <c r="K12" t="n">
+        <v>30648</v>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
           <t>24/08/2023</t>
@@ -1250,9 +1290,17 @@
         <v>1</v>
       </c>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Estádio Olímpico Nilton Santos (Rio de Janeiro)</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>46931</v>
+      </c>
+      <c r="K13" t="n">
+        <v>25255</v>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
           <t>23/08/2023</t>
@@ -1307,10 +1355,22 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Valenzuela J. (Ven)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Neo Química Arena (São Paulo)</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>49205</v>
+      </c>
+      <c r="K14" t="n">
+        <v>35572</v>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
           <t>22/08/2023</t>
@@ -1365,9 +1425,19 @@
       <c r="G15" t="n">
         <v>3</v>
       </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Perez Y. (Arg)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Estádio Rodrigo Paz Delgado (Quito)</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>41575</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
@@ -1427,16 +1497,8 @@
       <c r="G16" t="n">
         <v>4</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Ospina J. (Col)</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Neo Química Arena (São Paulo)</t>
-        </is>
-      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>49205</v>
       </c>
@@ -1480,7 +1542,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1639,10 +1701,22 @@
       <c r="G19" t="n">
         <v>0</v>
       </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Gonzalez F. (Chi)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Estadio Defensores del Chaco (Assunção)</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>44164</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4273</v>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>09/08/2023</t>
@@ -1697,9 +1771,19 @@
       <c r="G20" t="n">
         <v>0</v>
       </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Rojas A. (Col)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Estádio Marcelo Bielsa (Rosário)</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>42000</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
@@ -1755,10 +1839,22 @@
       <c r="G21" t="n">
         <v>0</v>
       </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Wilton Sampaio (Bra)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Estádio Norberto Tito Tomaghello (Gobernador Julio A. Costa)</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>20000</v>
+      </c>
+      <c r="K21" t="n">
+        <v>8754</v>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
           <t>08/08/2023</t>
@@ -1871,10 +1967,22 @@
       <c r="G23" t="n">
         <v>1</v>
       </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Vargas G. (Bol)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Mineirão (Belo Horizonte)</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>61927</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2546</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>03/08/2023</t>
@@ -1929,10 +2037,22 @@
       <c r="G24" t="n">
         <v>1</v>
       </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Ortega K. (Per)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Estadio Municipal Nelson Oyarzun Arenas (Chillán)</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>12000</v>
+      </c>
+      <c r="K24" t="n">
+        <v>6524</v>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
           <t>03/08/2023</t>
@@ -1978,7 +2098,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2195,10 +2315,22 @@
       <c r="G28" t="n">
         <v>1</v>
       </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Tejera G. (Uru)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Neo Química Arena (São Paulo)</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>49205</v>
+      </c>
+      <c r="K28" t="n">
+        <v>40251</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>01/08/2023</t>
@@ -2253,10 +2385,22 @@
       <c r="G29" t="n">
         <v>2</v>
       </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Flávio Rodrigues de Souza (Bra)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Estádio George Capwell (Guayaquil)</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>40020</v>
+      </c>
+      <c r="K29" t="n">
+        <v>14812</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>01/08/2023</t>
@@ -2311,22 +2455,10 @@
       <c r="G30" t="n">
         <v>1</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Herrera A. (Ven)</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Estadio Defensores del Chaco (Assunção)</t>
-        </is>
-      </c>
-      <c r="J30" t="n">
-        <v>44164</v>
-      </c>
-      <c r="K30" t="n">
-        <v>8165</v>
-      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>01/08/2023</t>
@@ -2517,10 +2649,22 @@
       <c r="G33" t="n">
         <v>0</v>
       </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Maza P. (Chi)</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Estádio George Capwell (Guayaquil)</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>40020</v>
+      </c>
+      <c r="K33" t="n">
+        <v>20729</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>19/07/2023</t>
@@ -2713,10 +2857,22 @@
       <c r="G36" t="n">
         <v>2</v>
       </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Roldan W. (Col)</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Estadio Monumental (Lima)</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>80093</v>
+      </c>
+      <c r="K36" t="n">
+        <v>46811</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>18/07/2023</t>
@@ -2772,9 +2928,17 @@
         <v>0</v>
       </c>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Estádio Jorge Luis Hirschi (La Plata)</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>32530</v>
+      </c>
+      <c r="K37" t="n">
+        <v>17289</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>18/07/2023</t>
@@ -2829,22 +2993,10 @@
       <c r="G38" t="n">
         <v>1</v>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Herrera D. (Arg)</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Mineirão (Belo Horizonte)</t>
-        </is>
-      </c>
-      <c r="J38" t="n">
-        <v>61927</v>
-      </c>
-      <c r="K38" t="n">
-        <v>4729</v>
-      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>18/07/2023</t>
@@ -2899,9 +3051,19 @@
       <c r="G39" t="n">
         <v>1</v>
       </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Garay C. (Chi)</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Estadio Defensores del Chaco (Assunção)</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>44164</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
@@ -3015,9 +3177,19 @@
       <c r="G41" t="n">
         <v>1</v>
       </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Herrera A. (Ven)</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Estadio Atanasio Girardot (Medellín)</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>40943</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
@@ -3141,16 +3313,8 @@
       <c r="G43" t="n">
         <v>2</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Vargas G. (Bol)</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Estadio Presbítero Bartolomé Grella (Paraná)</t>
-        </is>
-      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
         <v>23500</v>
       </c>
@@ -3211,19 +3375,9 @@
       <c r="G44" t="n">
         <v>0</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Valenzuela J. (Ven)</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Neo Química Arena (São Paulo)</t>
-        </is>
-      </c>
-      <c r="J44" t="n">
-        <v>49205</v>
-      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
         <v>36686</v>
       </c>
@@ -3281,8 +3435,16 @@
       <c r="G45" t="n">
         <v>1</v>
       </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Tejera G. (Uru)</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Estádio Banco Pichincha (Guayaquil)</t>
+        </is>
+      </c>
       <c r="J45" t="n">
         <v>59283</v>
       </c>
@@ -3402,8 +3564,14 @@
         <v>1</v>
       </c>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Estádio Olímpico Nilton Santos (Rio de Janeiro)</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>46931</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
@@ -3459,9 +3627,19 @@
       <c r="G48" t="n">
         <v>1</v>
       </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Garay C. (Chi)</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Estádio Norberto Tito Tomaghello (Gobernador Julio A. Costa)</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>20000</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
@@ -3585,16 +3763,8 @@
       <c r="G50" t="n">
         <v>2</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Haro D. (Per)</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>Estadio Centenario (Montevidéu)</t>
-        </is>
-      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>60235</v>
       </c>
@@ -3653,9 +3823,19 @@
       <c r="G51" t="n">
         <v>1</v>
       </c>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Ospina J. (Col)</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Estádio Marcelo Bielsa (Rosário)</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>42000</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
@@ -3711,9 +3891,19 @@
       <c r="G52" t="n">
         <v>0</v>
       </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Aragon A. (Ecu)</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Vila Belmiro (Santos)</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>16068</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
@@ -3750,7 +3940,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/dlONm5jl-bHhzTu6b.png</t>
+          <t>https://static.flashscore.com/res/image/data/dlONm5jl-AaS9a4Ho.png</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3895,9 +4085,19 @@
       <c r="G55" t="n">
         <v>1</v>
       </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Machado B. (Bra)</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Estádio George Capwell (Guayaquil)</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>40020</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
@@ -3953,9 +4153,19 @@
       <c r="G56" t="n">
         <v>0</v>
       </c>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>B. Arleu (Bra)</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Estadio Rogelio Livieres (Assunção)</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>8000</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
@@ -4011,8 +4221,16 @@
       <c r="G57" t="n">
         <v>0</v>
       </c>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Vergara M. (Chi)</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Estádio Jorge Luis Hirschi (La Plata)</t>
+        </is>
+      </c>
       <c r="J57" t="n">
         <v>32530</v>
       </c>
@@ -4072,11 +4290,7 @@
         <v>1</v>
       </c>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>Estádio Nabi Abi Chedid (Bragança Paulista)</t>
-        </is>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
         <v>15010</v>
       </c>
@@ -4116,7 +4330,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4135,19 +4349,9 @@
       <c r="G59" t="n">
         <v>0</v>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Guerrero G. (Ecu)</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>Estádio do MorumBIS (São Paulo)</t>
-        </is>
-      </c>
-      <c r="J59" t="n">
-        <v>77011</v>
-      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
@@ -4203,19 +4407,9 @@
       <c r="G60" t="n">
         <v>1</v>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Alarcon J. (Per)</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Estádio Manuel Murillo Toro (Ibagué)</t>
-        </is>
-      </c>
-      <c r="J60" t="n">
-        <v>28100</v>
-      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
@@ -4329,16 +4523,8 @@
       <c r="G62" t="n">
         <v>1</v>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Vargas G. (Bol)</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Estádio Gasómetro (Buenos Aires)</t>
-        </is>
-      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
         <v>75000</v>
       </c>
@@ -4397,19 +4583,9 @@
       <c r="G63" t="n">
         <v>2</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Rey Hilfer L. (Arg)</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>Estadio Mansiche (Trujillo)</t>
-        </is>
-      </c>
-      <c r="J63" t="n">
-        <v>25036</v>
-      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
@@ -4446,7 +4622,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/dlONm5jl-bHhzTu6b.png</t>
+          <t>https://static.flashscore.com/res/image/data/dlONm5jl-AaS9a4Ho.png</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -4467,7 +4643,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (Chi)</t>
+          <t>Gonzalez F. (Chi)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4591,9 +4767,19 @@
       <c r="G66" t="n">
         <v>0</v>
       </c>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Ortega C. (Col)</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Estadio Centenario (Montevidéu)</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>60235</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
@@ -4650,8 +4836,14 @@
         <v>0</v>
       </c>
       <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (Goiânia)</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>14450</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
@@ -4707,19 +4899,9 @@
       <c r="G68" t="n">
         <v>3</v>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Feres J. (Uru)</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>Estádio Ramón Tahuichi Aguilera Costas (Santa Cruz)</t>
-        </is>
-      </c>
-      <c r="J68" t="n">
-        <v>38000</v>
-      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
@@ -4756,7 +4938,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -4775,9 +4957,19 @@
       <c r="G69" t="n">
         <v>0</v>
       </c>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Gonzalez L. (Uru)</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Estádio do MorumBIS (São Paulo)</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>77011</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
@@ -4959,7 +5151,11 @@
       <c r="G72" t="n">
         <v>1</v>
       </c>
-      <c r="H72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Ortega K. (Per)</t>
+        </is>
+      </c>
       <c r="I72" t="inlineStr">
         <is>
           <t>Estádio Jorge Luis Hirschi (La Plata)</t>
@@ -5217,19 +5413,9 @@
       <c r="G76" t="n">
         <v>1</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Aragon A. (Ecu)</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>Estádio José Dellagiovanna (Buenos Aires)</t>
-        </is>
-      </c>
-      <c r="J76" t="n">
-        <v>26282</v>
-      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
@@ -5285,19 +5471,9 @@
       <c r="G77" t="n">
         <v>0</v>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Hinestroza Romana J. A. (Col)</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>Estádio Metropolitano de Mérida (Mérida)</t>
-        </is>
-      </c>
-      <c r="J77" t="n">
-        <v>43200</v>
-      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
@@ -5354,7 +5530,11 @@
         <v>3</v>
       </c>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (Montevidéu)</t>
+        </is>
+      </c>
       <c r="J78" t="n">
         <v>40000</v>
       </c>
@@ -5549,9 +5729,19 @@
       <c r="G81" t="n">
         <v>2</v>
       </c>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Rojas A. (Col)</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Estádio Tomás Adolfo Duco (Buenos Aires)</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>48314</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
@@ -5607,9 +5797,19 @@
       <c r="G82" t="n">
         <v>4</v>
       </c>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Bismark S. (Col)</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Estádio Ramón Tahuichi Aguilera Costas (Santa Cruz)</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>38000</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
@@ -5665,19 +5865,9 @@
       <c r="G83" t="n">
         <v>2</v>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Raphael Claus (Bra)</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>Estadio Centenario (Montevidéu)</t>
-        </is>
-      </c>
-      <c r="J83" t="n">
-        <v>60235</v>
-      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
@@ -5733,9 +5923,19 @@
       <c r="G84" t="n">
         <v>4</v>
       </c>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Argote J. (Ven)</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Estadio Defensores del Chaco (Assunção)</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>44164</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
@@ -5791,9 +5991,19 @@
       <c r="G85" t="n">
         <v>3</v>
       </c>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Betancur Gutierrez C. A. (Col)</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Estádio Ramón Tahuichi Aguilera Costas (Santa Cruz)</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>38000</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
@@ -5917,9 +6127,19 @@
       <c r="G87" t="n">
         <v>0</v>
       </c>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Ortega K. (Per)</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Estádio José Dellagiovanna (Buenos Aires)</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>26282</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
@@ -6092,7 +6312,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -6101,16 +6321,8 @@
       <c r="G90" t="n">
         <v>2</v>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Salazar B. L. (Ecu)</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>Complejo Deportivo Socialista (Carabobo)</t>
-        </is>
-      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
         <v>7000</v>
       </c>
@@ -6169,9 +6381,19 @@
       <c r="G91" t="n">
         <v>3</v>
       </c>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Mendez Chavez I. N. (Bol)</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Mineirão (Belo Horizonte)</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>61927</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
@@ -6227,19 +6449,9 @@
       <c r="G92" t="n">
         <v>1</v>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Ramirez M. (Arg)</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>Estádio El Teniente (Rancagua)</t>
-        </is>
-      </c>
-      <c r="J92" t="n">
-        <v>14087</v>
-      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
@@ -6286,7 +6498,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/dlONm5jl-bHhzTu6b.png</t>
+          <t>https://static.flashscore.com/res/image/data/dlONm5jl-AaS9a4Ho.png</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -6295,9 +6507,19 @@
       <c r="G93" t="n">
         <v>0</v>
       </c>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Arteaga A. (Ven)</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Estádio Juan Carmelo Zerillo (La Plata)</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>21500</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
@@ -6412,7 +6634,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/dlONm5jl-bHhzTu6b.png</t>
+          <t>https://static.flashscore.com/res/image/data/dlONm5jl-AaS9a4Ho.png</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -6422,14 +6644,8 @@
         <v>0</v>
       </c>
       <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>Estadio Monumental (Lima)</t>
-        </is>
-      </c>
-      <c r="J95" t="n">
-        <v>80093</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
@@ -6553,19 +6769,9 @@
       <c r="G97" t="n">
         <v>0</v>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Herrera D. (Arg)</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>Estádio Olímpico Nilton Santos (Rio de Janeiro)</t>
-        </is>
-      </c>
-      <c r="J97" t="n">
-        <v>46931</v>
-      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
@@ -6825,11 +7031,7 @@
       <c r="G101" t="n">
         <v>1</v>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Wilton Sampaio (Bra)</t>
-        </is>
-      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
           <t>Estadio Rogelio Livieres (Assunção)</t>
@@ -6963,9 +7165,7 @@
       </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>7000</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
@@ -7021,9 +7221,19 @@
       <c r="G104" t="n">
         <v>0</v>
       </c>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Betancur Gutierrez C. A. (Col)</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Estádio Municipal de La Cisterna (Santiago)</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
+        <v>8000</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
@@ -7147,19 +7357,9 @@
       <c r="G106" t="n">
         <v>2</v>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Rapallini F. (Arg)</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>Estádio El Teniente (Rancagua)</t>
-        </is>
-      </c>
-      <c r="J106" t="n">
-        <v>14087</v>
-      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
@@ -7215,9 +7415,19 @@
       <c r="G107" t="n">
         <v>0</v>
       </c>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Ortega C. (Col)</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Estádio Nabi Abi Chedid (Bragança Paulista)</t>
+        </is>
+      </c>
+      <c r="J107" t="n">
+        <v>15010</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
@@ -7392,7 +7602,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -7469,19 +7679,9 @@
       <c r="G111" t="n">
         <v>0</v>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>B. Arleu (Bra)</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>Estádio George Capwell (Guayaquil)</t>
-        </is>
-      </c>
-      <c r="J111" t="n">
-        <v>40020</v>
-      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
@@ -7605,19 +7805,9 @@
       <c r="G113" t="n">
         <v>2</v>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Vargas G. (Bol)</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>Estadio Monumental (Lima)</t>
-        </is>
-      </c>
-      <c r="J113" t="n">
-        <v>80093</v>
-      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
@@ -7673,19 +7863,9 @@
       <c r="G114" t="n">
         <v>0</v>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Ramirez M. (Arg)</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>Estádio Olímpico Nilton Santos (Rio de Janeiro)</t>
-        </is>
-      </c>
-      <c r="J114" t="n">
-        <v>46931</v>
-      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
@@ -7809,19 +7989,9 @@
       <c r="G116" t="n">
         <v>2</v>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Ostojich E. (Uru)</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>Estádio Pedro Bidegain (Buenos Aires)</t>
-        </is>
-      </c>
-      <c r="J116" t="n">
-        <v>47964</v>
-      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
@@ -8072,8 +8242,14 @@
         <v>1</v>
       </c>
       <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Estadio Rogelio Livieres (Assunção)</t>
+        </is>
+      </c>
+      <c r="J120" t="n">
+        <v>8000</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
@@ -8110,7 +8286,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/dlONm5jl-bHhzTu6b.png</t>
+          <t>https://static.flashscore.com/res/image/data/dlONm5jl-AaS9a4Ho.png</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -8129,19 +8305,9 @@
       <c r="G121" t="n">
         <v>1</v>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Guerrero G. (Ecu)</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>Estadio El Campín (Bogotá)</t>
-        </is>
-      </c>
-      <c r="J121" t="n">
-        <v>36343</v>
-      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
@@ -8178,7 +8344,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -8199,7 +8365,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Mendez Chavez I. N. (Bol)</t>
+          <t xml:space="preserve"> (Bol)</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -8267,7 +8433,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Maza P. (Chi)</t>
+          <t xml:space="preserve"> (Chi)</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -8335,7 +8501,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Espinoza M. (Per)</t>
+          <t xml:space="preserve"> (Per)</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -8537,9 +8703,19 @@
       <c r="G127" t="n">
         <v>2</v>
       </c>
-      <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Ferreyra C. (Uru)</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Estádio El Teniente (Rancagua)</t>
+        </is>
+      </c>
+      <c r="J127" t="n">
+        <v>14087</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
@@ -8595,9 +8771,19 @@
       <c r="G128" t="n">
         <v>2</v>
       </c>
-      <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Espinoza M. (Per)</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Estádio Polideportivo Misael Delgado (Valencia)</t>
+        </is>
+      </c>
+      <c r="J128" t="n">
+        <v>10400</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
@@ -8653,19 +8839,9 @@
       <c r="G129" t="n">
         <v>4</v>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>De Armas M. (Uru)</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>Estadio Defensores del Chaco (Assunção)</t>
-        </is>
-      </c>
-      <c r="J129" t="n">
-        <v>44164</v>
-      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
@@ -8712,7 +8888,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-UPn7aGHL.png</t>
+          <t>https://static.flashscore.com/res/image/data/YgK3qNCa-AkTesf41.png</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -8721,9 +8897,19 @@
       <c r="G130" t="n">
         <v>2</v>
       </c>
-      <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Ostojich E. (Uru)</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Estádio José Dellagiovanna (Buenos Aires)</t>
+        </is>
+      </c>
+      <c r="J130" t="n">
+        <v>26282</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
@@ -8779,19 +8965,9 @@
       <c r="G131" t="n">
         <v>1</v>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Ortega K. (Per)</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>Estádio Tomás Adolfo Duco (Buenos Aires)</t>
-        </is>
-      </c>
-      <c r="J131" t="n">
-        <v>48314</v>
-      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
@@ -8907,7 +9083,9 @@
       </c>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>21500</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
@@ -8963,9 +9141,19 @@
       <c r="G134" t="n">
         <v>0</v>
       </c>
-      <c r="H134" t="inlineStr"/>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Ospina J. (Col)</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Estadio Centenario (Montevidéu)</t>
+        </is>
+      </c>
+      <c r="J134" t="n">
+        <v>60235</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
@@ -9089,9 +9277,19 @@
       <c r="G136" t="n">
         <v>1</v>
       </c>
-      <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Congo F. (Ecu)</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Estádio Ramón Tahuichi Aguilera Costas (Santa Cruz)</t>
+        </is>
+      </c>
+      <c r="J136" t="n">
+        <v>38000</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
@@ -9206,8 +9404,14 @@
         <v>1</v>
       </c>
       <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Estádio Ramón Tahuichi Aguilera Costas (Santa Cruz)</t>
+        </is>
+      </c>
+      <c r="J138" t="n">
+        <v>38000</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
@@ -9321,9 +9525,19 @@
       <c r="G140" t="n">
         <v>1</v>
       </c>
-      <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Sanchez R. (Ecu)</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Estádio Metropolitano de Mérida (Mérida)</t>
+        </is>
+      </c>
+      <c r="J140" t="n">
+        <v>43200</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
@@ -9438,7 +9652,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/dlONm5jl-bHhzTu6b.png</t>
+          <t>https://static.flashscore.com/res/image/data/dlONm5jl-AaS9a4Ho.png</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -9515,14 +9729,10 @@
       <c r="G143" t="n">
         <v>0</v>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>Tejera G. (Uru)</t>
-        </is>
-      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Estadio Monumental (Lima)</t>
+          <t xml:space="preserve"> (Lima)</t>
         </is>
       </c>
       <c r="J143" t="n">
@@ -9585,9 +9795,7 @@
       </c>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>40020</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
@@ -9643,9 +9851,19 @@
       <c r="G145" t="n">
         <v>0</v>
       </c>
-      <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Valenzuela J. (Ven)</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Estádio Manuel Murillo Toro (Ibagué)</t>
+        </is>
+      </c>
+      <c r="J145" t="n">
+        <v>28100</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
@@ -9769,19 +9987,9 @@
       <c r="G147" t="n">
         <v>1</v>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>Rojas A. (Col)</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>Estádio El Cobre de El Salvador (El Salvador)</t>
-        </is>
-      </c>
-      <c r="J147" t="n">
-        <v>12000</v>
-      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
@@ -9837,9 +10045,19 @@
       <c r="G148" t="n">
         <v>1</v>
       </c>
-      <c r="H148" t="inlineStr"/>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Burgos J. (Uru)</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Estadio Mansiche (Trujillo)</t>
+        </is>
+      </c>
+      <c r="J148" t="n">
+        <v>25036</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
@@ -9886,7 +10104,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/dlONm5jl-bHhzTu6b.png</t>
+          <t>https://static.flashscore.com/res/image/data/dlONm5jl-AaS9a4Ho.png</t>
         </is>
       </c>
       <c r="F149" t="n">
@@ -9963,19 +10181,9 @@
       <c r="G150" t="n">
         <v>1</v>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>Sampaio S. (Bra)</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>Estádio Metropolitano de Mérida (Mérida)</t>
-        </is>
-      </c>
-      <c r="J150" t="n">
-        <v>43200</v>
-      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
@@ -10035,11 +10243,7 @@
       <c r="G151" t="n">
         <v>1</v>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (Bra)</t>
-        </is>
-      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
           <t>Estádio Luis Franzini (Montevidéu)</t>
@@ -10107,19 +10311,9 @@
       <c r="G152" t="n">
         <v>1</v>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (Ecu)</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>Estádio Gilberto Parada (Montero)</t>
-        </is>
-      </c>
-      <c r="J152" t="n">
-        <v>13000</v>
-      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
@@ -10175,9 +10369,19 @@
       <c r="G153" t="n">
         <v>1</v>
       </c>
-      <c r="H153" t="inlineStr"/>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Garay C. (Chi)</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Estadio Rogelio Livieres (Assunção)</t>
+        </is>
+      </c>
+      <c r="J153" t="n">
+        <v>8000</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
@@ -10234,8 +10438,14 @@
         <v>0</v>
       </c>
       <c r="H154" t="inlineStr"/>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Estádio Rodrigo Paz Delgado (Quito)</t>
+        </is>
+      </c>
+      <c r="J154" t="n">
+        <v>41575</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
@@ -10291,9 +10501,19 @@
       <c r="G155" t="n">
         <v>1</v>
       </c>
-      <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (Bol)</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Estádio Olímpico (Caracas)</t>
+        </is>
+      </c>
+      <c r="J155" t="n">
+        <v>24264</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
@@ -10408,7 +10628,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/OvyAhfyB-dAJb3Ws0.png</t>
+          <t>https://static.flashscore.com/res/image/data/OvyAhfyB-nRWWeW7h.png</t>
         </is>
       </c>
       <c r="F157" t="n">
@@ -10487,9 +10707,7 @@
       </c>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>44164</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
